--- a/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.11002320479565</v>
+        <v>90.02453573998493</v>
       </c>
       <c r="D2" t="n">
-        <v>1.136280175595103</v>
+        <v>1.095039666265211</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.8553579262549</v>
+        <v>88.89789147532213</v>
       </c>
       <c r="D3" t="n">
-        <v>1.095588039544195</v>
+        <v>1.166909959319776</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.92054497295604</v>
+        <v>88.24025707339661</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22901381118675</v>
+        <v>1.061875751032844</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.94767964754244</v>
+        <v>87.05104997969049</v>
       </c>
       <c r="D5" t="n">
-        <v>1.207625026946378</v>
+        <v>1.215033883431069</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.97777796173757</v>
+        <v>85.99346798851029</v>
       </c>
       <c r="D6" t="n">
-        <v>1.171709858249826</v>
+        <v>1.246118736165467</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.12321733255054</v>
+        <v>85.1500420830025</v>
       </c>
       <c r="D7" t="n">
-        <v>1.278679462272732</v>
+        <v>1.141052983618452</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.06076315647404</v>
+        <v>83.95538901663447</v>
       </c>
       <c r="D8" t="n">
-        <v>1.226486513241916</v>
+        <v>1.129251380477483</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.08029258946772</v>
+        <v>83.04931271549596</v>
       </c>
       <c r="D9" t="n">
-        <v>1.275993870693882</v>
+        <v>1.204775142800898</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.9385931687229</v>
+        <v>82.15609652477401</v>
       </c>
       <c r="D10" t="n">
-        <v>1.315233337364285</v>
+        <v>1.132889656158213</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.86252631818246</v>
+        <v>81.00670203497909</v>
       </c>
       <c r="D11" t="n">
-        <v>1.149798470144741</v>
+        <v>1.187431453681705</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.1676037875549</v>
+        <v>79.84845963186388</v>
       </c>
       <c r="D12" t="n">
-        <v>1.104160305912451</v>
+        <v>1.193070361162434</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.89643985711538</v>
+        <v>78.81511662755346</v>
       </c>
       <c r="D13" t="n">
-        <v>1.267608175562323</v>
+        <v>1.16313159024434</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.00195935446443</v>
+        <v>78.18947805266747</v>
       </c>
       <c r="D14" t="n">
-        <v>1.083340599430437</v>
+        <v>1.245585780257394</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.26608838078486</v>
+        <v>77.26358624050216</v>
       </c>
       <c r="D15" t="n">
-        <v>1.083196708561814</v>
+        <v>1.048526600475783</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.01825918185257</v>
+        <v>75.90998045164719</v>
       </c>
       <c r="D16" t="n">
-        <v>1.300930449127277</v>
+        <v>1.259990869463973</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.10525204053575</v>
+        <v>74.79797459952211</v>
       </c>
       <c r="D17" t="n">
-        <v>1.185692396142005</v>
+        <v>1.113215883903361</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.14168732284433</v>
+        <v>74.0978023195794</v>
       </c>
       <c r="D18" t="n">
-        <v>1.189819718641709</v>
+        <v>1.169376056599601</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.11597881495662</v>
+        <v>73.10058329744845</v>
       </c>
       <c r="D19" t="n">
-        <v>1.219889381742931</v>
+        <v>1.235325658122537</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.89657137266177</v>
+        <v>71.94617849219118</v>
       </c>
       <c r="D20" t="n">
-        <v>1.191602049374864</v>
+        <v>1.365921186921592</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.92011127546735</v>
+        <v>71.05646674162439</v>
       </c>
       <c r="D21" t="n">
-        <v>1.254323269565772</v>
+        <v>1.132551000025566</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.05210704999347</v>
+        <v>69.83528622173074</v>
       </c>
       <c r="D22" t="n">
-        <v>1.391690587020257</v>
+        <v>1.228401097985384</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.02971627585011</v>
+        <v>68.94598907807375</v>
       </c>
       <c r="D23" t="n">
-        <v>1.122303970487116</v>
+        <v>1.092780462551996</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.13577538585805</v>
+        <v>68.04314655779578</v>
       </c>
       <c r="D24" t="n">
-        <v>1.279516666765155</v>
+        <v>1.135024694691847</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.13553226499441</v>
+        <v>67.02650085000715</v>
       </c>
       <c r="D25" t="n">
-        <v>1.11815722900076</v>
+        <v>1.143874721643035</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.91612971625079</v>
+        <v>66.05442783637213</v>
       </c>
       <c r="D26" t="n">
-        <v>1.216949005605835</v>
+        <v>1.298921916722468</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.94120998342615</v>
+        <v>64.90659611359143</v>
       </c>
       <c r="D27" t="n">
-        <v>1.314715666474953</v>
+        <v>1.337738648741816</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81522510101932</v>
+        <v>64.00825111757655</v>
       </c>
       <c r="D28" t="n">
-        <v>1.268260707242534</v>
+        <v>1.164334918942519</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.02591042049042</v>
+        <v>63.25046683227674</v>
       </c>
       <c r="D29" t="n">
-        <v>1.28129852294484</v>
+        <v>1.264876672251801</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.14820723142822</v>
+        <v>62.03405099959294</v>
       </c>
       <c r="D30" t="n">
-        <v>1.263475220394378</v>
+        <v>1.282552073595467</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.03009731818633</v>
+        <v>60.99642241888459</v>
       </c>
       <c r="D31" t="n">
-        <v>1.352091517510284</v>
+        <v>1.238550533987848</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.05018277699372</v>
+        <v>59.91034958439088</v>
       </c>
       <c r="D32" t="n">
-        <v>1.22591891135061</v>
+        <v>1.235282047589035</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.75951970881523</v>
+        <v>58.86507878769168</v>
       </c>
       <c r="D33" t="n">
-        <v>1.151506600651819</v>
+        <v>1.263320863781394</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.93054595434424</v>
+        <v>58.43090332326383</v>
       </c>
       <c r="D34" t="n">
-        <v>1.179283055210093</v>
+        <v>1.244289103424747</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.89207164125775</v>
+        <v>56.80856174095757</v>
       </c>
       <c r="D35" t="n">
-        <v>1.358413532032064</v>
+        <v>1.33830323089008</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.04318956759923</v>
+        <v>55.74414602311621</v>
       </c>
       <c r="D36" t="n">
-        <v>1.183512019975071</v>
+        <v>1.202497440711272</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.14387612391182</v>
+        <v>55.16644569108653</v>
       </c>
       <c r="D37" t="n">
-        <v>1.170508939957317</v>
+        <v>1.223242968327661</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.241062298758</v>
+        <v>53.88041043812611</v>
       </c>
       <c r="D38" t="n">
-        <v>1.239339903490556</v>
+        <v>1.124489397033441</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.82339630851006</v>
+        <v>53.13050299339573</v>
       </c>
       <c r="D39" t="n">
-        <v>1.136614127843918</v>
+        <v>1.307718735976339</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.12667131382244</v>
+        <v>51.99136991035748</v>
       </c>
       <c r="D40" t="n">
-        <v>1.24960650156986</v>
+        <v>1.30978436201067</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.96095199065646</v>
+        <v>51.11139577719557</v>
       </c>
       <c r="D41" t="n">
-        <v>1.291715144069335</v>
+        <v>1.306710593577692</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.9670881630471</v>
+        <v>50.08371326016452</v>
       </c>
       <c r="D42" t="n">
-        <v>1.203915829898057</v>
+        <v>1.216334217987497</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.12348516811535</v>
+        <v>49.04900707360297</v>
       </c>
       <c r="D43" t="n">
-        <v>1.27539339853086</v>
+        <v>1.347903930494776</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.05410369330474</v>
+        <v>47.80631550118233</v>
       </c>
       <c r="D44" t="n">
-        <v>1.232538903885976</v>
+        <v>1.306949210699377</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.10755637985014</v>
+        <v>47.03154390587753</v>
       </c>
       <c r="D45" t="n">
-        <v>1.148826090216125</v>
+        <v>1.364228673986241</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.98095052355589</v>
+        <v>45.95192013294334</v>
       </c>
       <c r="D46" t="n">
-        <v>1.158954609191954</v>
+        <v>1.332564012436586</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.076693449288</v>
+        <v>44.91377464093541</v>
       </c>
       <c r="D47" t="n">
-        <v>1.429430128755928</v>
+        <v>1.112376502010473</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.92439405513331</v>
+        <v>44.0763430785587</v>
       </c>
       <c r="D48" t="n">
-        <v>1.37710090794293</v>
+        <v>1.180206769037495</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.13173113601908</v>
+        <v>42.66137624596773</v>
       </c>
       <c r="D49" t="n">
-        <v>1.43758007272745</v>
+        <v>1.330010899364937</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.03574400230536</v>
+        <v>41.98237544316044</v>
       </c>
       <c r="D50" t="n">
-        <v>1.317059598767269</v>
+        <v>1.197495665346866</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.97922470896296</v>
+        <v>40.92778156219907</v>
       </c>
       <c r="D51" t="n">
-        <v>1.186507000532682</v>
+        <v>1.305490053260898</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.06286138546488</v>
+        <v>40.18486442904688</v>
       </c>
       <c r="D52" t="n">
-        <v>1.300995662914979</v>
+        <v>1.251062243807189</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.0847952214616</v>
+        <v>38.84856675624754</v>
       </c>
       <c r="D53" t="n">
-        <v>1.270424049708623</v>
+        <v>1.237433287944728</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.01697503851038</v>
+        <v>37.75857688968994</v>
       </c>
       <c r="D54" t="n">
-        <v>1.24965080814933</v>
+        <v>1.418543113933796</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.11968974237414</v>
+        <v>37.19134175305672</v>
       </c>
       <c r="D55" t="n">
-        <v>1.066336066809444</v>
+        <v>1.312057767410129</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.98538760445169</v>
+        <v>35.97230430688416</v>
       </c>
       <c r="D56" t="n">
-        <v>1.217338055879123</v>
+        <v>1.269800513997819</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.90274871010011</v>
+        <v>35.1243185905065</v>
       </c>
       <c r="D57" t="n">
-        <v>1.292843745073959</v>
+        <v>1.278746755788966</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.1231713391897</v>
+        <v>33.73983324440656</v>
       </c>
       <c r="D58" t="n">
-        <v>1.266987235511872</v>
+        <v>1.352301917071086</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.03972671342546</v>
+        <v>33.09623331001863</v>
       </c>
       <c r="D59" t="n">
-        <v>1.208537903282618</v>
+        <v>1.353811985437337</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.24793098606836</v>
+        <v>32.2780393488729</v>
       </c>
       <c r="D60" t="n">
-        <v>1.395177674146763</v>
+        <v>1.327550178467754</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.87447868088875</v>
+        <v>31.07321852933719</v>
       </c>
       <c r="D61" t="n">
-        <v>1.300493925522441</v>
+        <v>1.451087429496401</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.05789829720305</v>
+        <v>29.92127929007461</v>
       </c>
       <c r="D62" t="n">
-        <v>1.39139149212554</v>
+        <v>1.37011715652234</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.03508824657039</v>
+        <v>28.84373133617792</v>
       </c>
       <c r="D63" t="n">
-        <v>1.43837592852162</v>
+        <v>1.510365767692428</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.94381922224717</v>
+        <v>28.02161096417087</v>
       </c>
       <c r="D64" t="n">
-        <v>1.381522238532611</v>
+        <v>1.294962854325664</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.06904371042539</v>
+        <v>26.87783800806858</v>
       </c>
       <c r="D65" t="n">
-        <v>1.464734241884497</v>
+        <v>1.347808919742966</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.9782505274475</v>
+        <v>25.8969951745675</v>
       </c>
       <c r="D66" t="n">
-        <v>1.380191294586626</v>
+        <v>1.280111705527415</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.9916450527232</v>
+        <v>24.97101806453131</v>
       </c>
       <c r="D67" t="n">
-        <v>1.334137237090232</v>
+        <v>1.282266362863187</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.00910811066566</v>
+        <v>23.84682258184944</v>
       </c>
       <c r="D68" t="n">
-        <v>1.353790538463677</v>
+        <v>1.252409808699135</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.11932140227103</v>
+        <v>22.89456392093194</v>
       </c>
       <c r="D69" t="n">
-        <v>1.515065856395731</v>
+        <v>1.294403449255715</v>
       </c>
     </row>
   </sheetData>
